--- a/Data_frame/balancos_definitivos/OFSA3.xlsx
+++ b/Data_frame/balancos_definitivos/OFSA3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -758,6 +768,12 @@
       <c r="AN2" t="n">
         <v>1279009.024</v>
       </c>
+      <c r="AO2" t="n">
+        <v>1291970.048</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1306680.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -882,6 +898,12 @@
       <c r="AN3" t="n">
         <v>828889.024</v>
       </c>
+      <c r="AO3" t="n">
+        <v>832136</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>837590.976</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1006,6 +1028,12 @@
       <c r="AN4" t="n">
         <v>304028.992</v>
       </c>
+      <c r="AO4" t="n">
+        <v>349251.008</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>343246.016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1130,6 +1158,12 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1254,6 +1288,12 @@
       <c r="AN6" t="n">
         <v>263035.008</v>
       </c>
+      <c r="AO6" t="n">
+        <v>202911.008</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>198092.992</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1378,6 +1418,12 @@
       <c r="AN7" t="n">
         <v>207888</v>
       </c>
+      <c r="AO7" t="n">
+        <v>222414</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>249752</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1502,6 +1548,12 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1626,6 +1678,12 @@
       <c r="AN9" t="n">
         <v>31521</v>
       </c>
+      <c r="AO9" t="n">
+        <v>34190</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>37667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1750,6 +1808,12 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1874,6 +1938,12 @@
       <c r="AN11" t="n">
         <v>22416</v>
       </c>
+      <c r="AO11" t="n">
+        <v>23370</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8833</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1998,6 +2068,12 @@
       <c r="AN12" t="n">
         <v>24313</v>
       </c>
+      <c r="AO12" t="n">
+        <v>23807</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>32644</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2122,6 +2198,12 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2246,6 +2328,12 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2370,6 +2458,12 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2494,6 +2588,12 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2618,6 +2718,12 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2742,6 +2848,12 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2866,6 +2978,12 @@
       <c r="AN19" t="n">
         <v>21888</v>
       </c>
+      <c r="AO19" t="n">
+        <v>21121</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>30138</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2990,6 +3108,12 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3114,6 +3238,12 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3238,6 +3368,12 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3362,6 +3498,12 @@
       <c r="AN23" t="n">
         <v>333145.984</v>
       </c>
+      <c r="AO23" t="n">
+        <v>339439.008</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>336262.016</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3486,6 +3628,12 @@
       <c r="AN24" t="n">
         <v>92661</v>
       </c>
+      <c r="AO24" t="n">
+        <v>96588</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>100184</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3610,6 +3758,12 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3734,6 +3888,12 @@
       <c r="AN26" t="n">
         <v>1279009.024</v>
       </c>
+      <c r="AO26" t="n">
+        <v>1291970.048</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1306680.96</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3858,6 +4018,12 @@
       <c r="AN27" t="n">
         <v>232656</v>
       </c>
+      <c r="AO27" t="n">
+        <v>239284</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>271737.984</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3982,6 +4148,12 @@
       <c r="AN28" t="n">
         <v>30212</v>
       </c>
+      <c r="AO28" t="n">
+        <v>33502</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>38749</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4106,6 +4278,12 @@
       <c r="AN29" t="n">
         <v>74558</v>
       </c>
+      <c r="AO29" t="n">
+        <v>82003</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>104517</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4230,6 +4408,12 @@
       <c r="AN30" t="n">
         <v>10825</v>
       </c>
+      <c r="AO30" t="n">
+        <v>8359</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>13941</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4354,6 +4538,12 @@
       <c r="AN31" t="n">
         <v>98852</v>
       </c>
+      <c r="AO31" t="n">
+        <v>98208</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>96511</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4478,6 +4668,12 @@
       <c r="AN32" t="n">
         <v>338</v>
       </c>
+      <c r="AO32" t="n">
+        <v>263</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4602,6 +4798,12 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4726,6 +4928,12 @@
       <c r="AN34" t="n">
         <v>17871</v>
       </c>
+      <c r="AO34" t="n">
+        <v>16949</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>17686</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4850,6 +5058,12 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4974,6 +5188,12 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5098,6 +5318,12 @@
       <c r="AN37" t="n">
         <v>356958.016</v>
       </c>
+      <c r="AO37" t="n">
+        <v>349872</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>345459.008</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5222,6 +5448,12 @@
       <c r="AN38" t="n">
         <v>333121.984</v>
       </c>
+      <c r="AO38" t="n">
+        <v>323216</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>314280.992</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5346,6 +5578,12 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5470,6 +5708,12 @@
       <c r="AN40" t="n">
         <v>18814</v>
       </c>
+      <c r="AO40" t="n">
+        <v>21708</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>23789</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5594,6 +5838,12 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5718,6 +5968,12 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5842,6 +6098,12 @@
       <c r="AN43" t="n">
         <v>5022</v>
       </c>
+      <c r="AO43" t="n">
+        <v>4948</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>7389</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5966,6 +6228,12 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6090,6 +6358,12 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6214,6 +6488,12 @@
       <c r="AN46" t="n">
         <v>21</v>
       </c>
+      <c r="AO46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6338,6 +6618,12 @@
       <c r="AN47" t="n">
         <v>689374.008</v>
       </c>
+      <c r="AO47" t="n">
+        <v>702794.0159999999</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>689465.032</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6462,6 +6748,12 @@
       <c r="AN48" t="n">
         <v>599822.976</v>
       </c>
+      <c r="AO48" t="n">
+        <v>599822.976</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>599822.976</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6586,6 +6878,12 @@
       <c r="AN49" t="n">
         <v>2888</v>
       </c>
+      <c r="AO49" t="n">
+        <v>1998</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6710,6 +7008,12 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6834,6 +7138,12 @@
       <c r="AN51" t="n">
         <v>69708</v>
       </c>
+      <c r="AO51" t="n">
+        <v>69708</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>38708</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6958,6 +7268,12 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
+      <c r="AO52" t="n">
+        <v>12852</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>29748</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7082,6 +7398,12 @@
       <c r="AN53" t="n">
         <v>16955</v>
       </c>
+      <c r="AO53" t="n">
+        <v>18413</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>18892</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7206,6 +7528,12 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7330,6 +7658,12 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7452,6 +7786,12 @@
         <v>0</v>
       </c>
       <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7500,6 +7840,8 @@
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7546,6 +7888,8 @@
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7670,6 +8014,12 @@
       <c r="AN59" t="n">
         <v>280596.032</v>
       </c>
+      <c r="AO59" t="n">
+        <v>178390</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>217214</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7794,6 +8144,12 @@
       <c r="AN60" t="n">
         <v>-160083.008</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-92796</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-112605</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7918,6 +8274,12 @@
       <c r="AN61" t="n">
         <v>120512.992</v>
       </c>
+      <c r="AO61" t="n">
+        <v>85594</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>104609</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8042,6 +8404,12 @@
       <c r="AN62" t="n">
         <v>-73647.984</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-57070</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-64907</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8166,6 +8534,12 @@
       <c r="AN63" t="n">
         <v>-15350</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-13224</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-13869</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8290,6 +8664,12 @@
       <c r="AN64" t="n">
         <v>24382</v>
       </c>
+      <c r="AO64" t="n">
+        <v>5550</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8414,6 +8794,12 @@
       <c r="AN65" t="n">
         <v>-7658</v>
       </c>
+      <c r="AO65" t="n">
+        <v>6452</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>3529</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8538,6 +8924,12 @@
       <c r="AN66" t="n">
         <v>-15148</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-902</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-3102</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8662,6 +9054,12 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8786,6 +9184,12 @@
       <c r="AN68" t="n">
         <v>-3115</v>
       </c>
+      <c r="AO68" t="n">
+        <v>-1236</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>-1277</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8910,6 +9314,12 @@
       <c r="AN69" t="n">
         <v>5780</v>
       </c>
+      <c r="AO69" t="n">
+        <v>8775</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>13458</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9033,6 +9443,12 @@
       </c>
       <c r="AN70" t="n">
         <v>-8895</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>-10011</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>-14735</v>
       </c>
     </row>
     <row r="71">
@@ -9080,6 +9496,8 @@
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9126,6 +9544,8 @@
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9172,6 +9592,8 @@
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9296,6 +9718,12 @@
       <c r="AN74" t="n">
         <v>29976</v>
       </c>
+      <c r="AO74" t="n">
+        <v>25164</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>24983</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9420,6 +9848,12 @@
       <c r="AN75" t="n">
         <v>2026</v>
       </c>
+      <c r="AO75" t="n">
+        <v>-5963</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>-17060</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9543,6 +9977,12 @@
       </c>
       <c r="AN76" t="n">
         <v>-12297</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>-802</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>8973</v>
       </c>
     </row>
     <row r="77">
@@ -9590,6 +10030,8 @@
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9636,6 +10078,8 @@
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9760,6 +10204,12 @@
       <c r="AN79" t="n">
         <v>1</v>
       </c>
+      <c r="AO79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9883,6 +10333,12 @@
       </c>
       <c r="AN80" t="n">
         <v>19706</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>12852</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>16896</v>
       </c>
     </row>
   </sheetData>
